--- a/src/analysis_examples/circadb/results_lomb/cosinor_10441864_mllt4_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10441864_mllt4_.xlsx
@@ -589,51 +589,51 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.180142476861819, 0.3523963342463526]</t>
+          <t>[0.1821522797142105, 0.3503865313939611]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.260722063773812e-06</v>
+        <v>1.611839015147609e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>2.260722063773812e-06</v>
+        <v>1.611839015147609e-06</v>
       </c>
       <c r="O2" t="n">
         <v>-0.3773684869176925</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.7421580242714629, -0.012578949563922137]</t>
+          <t>[-0.7170001251436169, -0.03773684869176819]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.04324334707747535</v>
+        <v>0.03109809983137257</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04324334707747535</v>
+        <v>0.03109809983137257</v>
       </c>
       <c r="S2" t="n">
         <v>0.3874238436523837</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.34005045422611, 0.43479723307865736]</t>
+          <t>[0.34007307143570864, 0.43477461586905874]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>9.325873406851315e-14</v>
+        <v>9.237055564881302e-14</v>
       </c>
       <c r="V2" t="n">
-        <v>9.325873406851315e-14</v>
+        <v>9.237055564881302e-14</v>
       </c>
       <c r="W2" t="n">
         <v>1.664864864864935</v>
       </c>
       <c r="X2" t="n">
-        <v>0.05549549549549293</v>
+        <v>0.1664864864864879</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.274234234234377</v>
+        <v>3.163243243243382</v>
       </c>
     </row>
   </sheetData>
